--- a/src/data/death-test.xlsx
+++ b/src/data/death-test.xlsx
@@ -14,20 +14,56 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="20">
-  <si>
-    <t>page</t>
-  </si>
-  <si>
-    <t>date</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="30">
+  <si>
+    <t>Page</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Father</t>
+  </si>
+  <si>
+    <t>Mother</t>
+  </si>
+  <si>
+    <t>Spouse</t>
+  </si>
+  <si>
+    <t>Nationality</t>
+  </si>
+  <si>
+    <t>Residence</t>
+  </si>
+  <si>
+    <t>Civil Status</t>
+  </si>
+  <si>
+    <t>Date of Death</t>
+  </si>
+  <si>
+    <t>Cause of Death</t>
+  </si>
+  <si>
+    <t>Place of Burial</t>
+  </si>
+  <si>
+    <t>Priest</t>
+  </si>
+  <si>
+    <t>2017-05-24</t>
   </si>
   <si>
     <t>name</t>
   </si>
   <si>
-    <t>age</t>
-  </si>
-  <si>
     <t>father</t>
   </si>
   <si>
@@ -46,9 +82,6 @@
     <t>civilstatus</t>
   </si>
   <si>
-    <t>date of death</t>
-  </si>
-  <si>
     <t>cause of death</t>
   </si>
   <si>
@@ -56,9 +89,6 @@
   </si>
   <si>
     <t>priest</t>
-  </si>
-  <si>
-    <t>2017-05-24</t>
   </si>
   <si>
     <t>2017-05-25</t>
@@ -81,9 +111,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="20">
@@ -95,16 +125,121 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -120,120 +255,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -254,31 +284,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -290,145 +434,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -446,52 +476,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -522,11 +507,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -539,153 +545,177 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1018,7 +1048,7 @@
   <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6"/>
@@ -1028,7 +1058,7 @@
     <col min="9" max="9" width="11.875" customWidth="1"/>
     <col min="10" max="10" width="12.375" customWidth="1"/>
     <col min="11" max="11" width="14.625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="13" customWidth="1"/>
+    <col min="12" max="12" width="15.75" customWidth="1"/>
     <col min="13" max="13" width="17.625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1084,40 +1114,40 @@
         <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D2">
         <v>100</v>
       </c>
       <c r="E2" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="G2" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="H2" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="I2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="J2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L2" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="M2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="N2" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -1125,43 +1155,43 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
         <v>15</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2</v>
       </c>
       <c r="D3">
         <v>101</v>
       </c>
       <c r="E3" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="G3" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="H3" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="I3" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="J3" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="L3" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="M3" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="N3" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -1169,43 +1199,43 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D4">
         <v>102</v>
       </c>
       <c r="E4" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="G4" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="H4" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="I4" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="J4" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="L4" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="M4" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="N4" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -1213,43 +1243,43 @@
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D5">
         <v>103</v>
       </c>
       <c r="E5" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="G5" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="H5" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="I5" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="J5" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="L5" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="M5" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="N5" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -1257,43 +1287,43 @@
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D6">
         <v>104</v>
       </c>
       <c r="E6" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F6" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="G6" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="H6" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="I6" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="J6" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="L6" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="M6" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="N6" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -1301,43 +1331,43 @@
         <v>1</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D7">
         <v>105</v>
       </c>
       <c r="E7" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F7" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="G7" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="H7" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="I7" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="J7" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="L7" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="M7" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="N7" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
